--- a/pred_ohlcv/54_21/2020-01-15 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 SOC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>5599364.667140703</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5198406.572740703</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5343761.102040702</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5270684.713940702</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5226548.181840702</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>5198119.554440702</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -808,7 +808,7 @@
         <v>4737248.565440702</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4737248.565440702</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4700121.901240703</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4493454.779940703</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>4612664.945940703</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>4480744.323540703</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4504753.638540704</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4400653.927540704</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3281428.234997069</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3246728.326297069</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3256317.819497069</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3266141.750397069</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2182996.167741444</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2206154.446341444</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2177198.479941444</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1648466.640141444</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1662618.978241444</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1642733.472141444</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1642733.472141444</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2588293.007824886</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>2588293.007824886</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>2577285.215524886</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2662888.790324886</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>5180233.896733077</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>5162778.573533077</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>5109459.417033077</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>5272458.914833077</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>5298985.890633077</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>5287795.546233078</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>5307603.769233078</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>5307603.769233078</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>5329990.208233078</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>5110589.080533078</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>5128845.140633078</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>5359762.243033078</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4506011.043833078</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H520">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2775191.851183221</v>
       </c>
       <c r="H521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2919184.671283221</v>
       </c>
       <c r="H522">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>6181179.763983222</v>
       </c>
       <c r="H523">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>5482566.199283222</v>
       </c>
       <c r="H524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>6175805.683283222</v>
       </c>
       <c r="H525">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>255834946.3176059</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>255707291.1528059</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>255714027.5226059</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>255628994.7412381</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>255699175.8894381</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>255437104.6443123</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>255314159.2381123</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>255390310.8005123</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>255390310.8005123</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>255260751.8186123</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>254450702.0403123</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 SOC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 SOC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>5599364.667140703</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>5198406.572740703</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>5343761.102040702</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>5270684.713940702</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>5226548.181840702</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>5481158.092340702</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5436331.393140703</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4856251.678940702</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4900484.338640702</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>4737248.565440702</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>4737248.565440702</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>4700121.901240703</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>4493454.779940703</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>4504753.638540704</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4504753.638540704</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>4400653.927540704</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>3281428.234997069</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>3246728.326297069</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>3256317.819497069</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>3266141.750397069</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>2182996.167741444</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>2206154.446341444</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>2177198.479941444</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1648466.640141444</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1662618.978241444</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1642733.472141444</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1642733.472141444</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>2588293.007824886</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>2588293.007824886</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>2577285.215524886</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>2662888.790324886</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>5582696.660881997</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>5497438.199381997</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>5180233.896733077</v>
       </c>
       <c r="H464">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>5162778.573533077</v>
       </c>
       <c r="H467">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>5109459.417033077</v>
       </c>
       <c r="H468">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>5272458.914833077</v>
       </c>
       <c r="H469">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>5298985.890633077</v>
       </c>
       <c r="H470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>5287795.546233078</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>5307603.769233078</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>5307603.769233078</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>5329990.208233078</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>5110589.080533078</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>5128845.140633078</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>5359762.243033078</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>4506011.043833078</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2704456.014183222</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2809840.279383222</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>2790791.686183222</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>2764836.209883221</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2775191.851183221</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2919184.671283221</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>6181179.763983222</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>5482566.199283222</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>6175805.683283222</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>8119256.499083222</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>6139196.243683222</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>6929301.213883222</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>5812426.156483222</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>4050840.695983222</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>6805958.35414119</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>8733624.092141189</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>9313793.182441188</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>9137262.483841188</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>9920926.711341187</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>9529467.320841188</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>9205896.730941188</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>8741236.001141187</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>8924411.505541187</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>9010012.822241187</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>9290750.934948683</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>255834946.3176059</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>255707291.1528059</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>255714027.5226059</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>255628994.7412381</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>255699175.8894381</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>255437104.6443123</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>255314159.2381123</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>255390310.8005123</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>255390310.8005123</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>255260751.8186123</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>254450702.0403123</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
